--- a/xlsx/圣地亚哥_intext.xlsx
+++ b/xlsx/圣地亚哥_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>政策_政策_加州_圣地亚哥</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9B%85%E5%90%84</t>
   </si>
   <si>
-    <t>聖雅各</t>
+    <t>圣雅各</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9C%B0%E4%BA%9A%E5%93%A5%E9%A6%96%E9%83%BD%E5%A4%A7%E5%8C%BA</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E5%8C%97%E6%A1%91%E5%9D%A6%E5%BE%B7%E7%9C%81)</t>
   </si>
   <si>
-    <t>聖地牙哥 (北桑坦德省)</t>
+    <t>圣地牙哥 (北桑坦德省)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A1%91%E5%9D%A6%E5%BE%B7%E7%9C%81</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E4%BA%9E%E5%93%A5_(%E6%99%AE%E5%9C%96%E9%A6%AC%E7%B4%84%E7%9C%81)</t>
   </si>
   <si>
-    <t>聖地亞哥 (普圖馬約省)</t>
+    <t>圣地亚哥 (普图马约省)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%9B%BE%E9%A9%AC%E7%BA%A6%E7%9C%81</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0)</t>
   </si>
   <si>
-    <t>聖地牙哥 (多明尼加)</t>
+    <t>圣地牙哥 (多明尼加)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B2%9B</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%8B%89%E7%93%9C%E6%96%AF%E7%9C%81</t>
   </si>
   <si>
-    <t>貝拉瓜斯省</t>
+    <t>贝拉瓜斯省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9C%B0%E4%BA%9A%E5%93%A5-%E5%BE%B7%E5%AD%94%E6%B3%A2%E6%96%AF%E7%89%B9%E6%8B%89</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E8%A5%BF%E4%BA%9E%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>加利西亞自治區</t>
+    <t>加利西亚自治区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Santiago_(Philippine_city)</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%8E%E8%B2%9D%E6%8B%89%E7%9C%81</t>
   </si>
   <si>
-    <t>伊莎貝拉省</t>
+    <t>伊莎贝拉省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%B2%82%E8%A7%92</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E5%B8%82</t>
@@ -203,25 +203,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A2%E5%AF%AE%E5%8D%80</t>
   </si>
   <si>
-    <t>貢寮區</t>
+    <t>贡寮区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%B0%E7%90%86%E6%A5%B5%E9%BB%9E</t>
   </si>
   <si>
-    <t>中華民國地理極點</t>
+    <t>中华民国地理极点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖地牙哥島</t>
+    <t>圣地牙哥岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥 (加利福尼亞州)</t>
+    <t>圣地牙哥 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1</t>
   </si>
   <si>
-    <t>聖地牙哥郡</t>
+    <t>圣地牙哥郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
   </si>
   <si>
-    <t>縣</t>
+    <t>县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%BF%AD%E6%88%88%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖迭戈縣</t>
+    <t>圣迭戈县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%9C%B0%E7%89%99%E5%93%A5%C2%B7%E6%8B%89%E8%92%99%E5%8D%A1%E5%93%88</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%BF%AD%E6%88%88_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>聖迭戈 (消歧義)</t>
+    <t>圣迭戈 (消歧义)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5</t>
